--- a/storage/csv/deployment/MEMBERS PROFILING AS OF DECEMBER 2024 - FINAL.xlsx
+++ b/storage/csv/deployment/MEMBERS PROFILING AS OF DECEMBER 2024 - FINAL.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\oxytoxin\Sites\sksumpc\storage\csv\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8912E-24E7-490D-9628-07AD0D089F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER LIST" sheetId="1" r:id="rId1"/>
@@ -37,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B558" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B558" authorId="0">
       <text>
         <r>
           <rPr>
@@ -9709,10 +9703,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -10115,10 +10109,10 @@
   </borders>
   <cellStyleXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
@@ -10302,78 +10296,78 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="169" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="169" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="9" xfId="169" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="169" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="169" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="169" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="169" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="169" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="169" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="169" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="169" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="169" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="169" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="11" xfId="169" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="169" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="169" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="169" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="169" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -10428,175 +10422,175 @@
   </cellXfs>
   <cellStyles count="170">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{E391A33F-4510-494B-957B-F96573386940}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="12" xr:uid="{2BCB366B-7FF4-4DD6-A766-8819A27646EC}"/>
-    <cellStyle name="Normal 100" xfId="102" xr:uid="{BA0B71D8-9E72-450B-991C-AE3D057A53DE}"/>
-    <cellStyle name="Normal 101" xfId="103" xr:uid="{3FE883A7-595B-4831-9D0A-903B88762A67}"/>
-    <cellStyle name="Normal 102" xfId="104" xr:uid="{652C45CA-9C4C-4160-B8C0-9BC175662DEA}"/>
-    <cellStyle name="Normal 103" xfId="105" xr:uid="{161F6375-0C84-44B8-BCA7-F6DE9DA6B907}"/>
-    <cellStyle name="Normal 104" xfId="106" xr:uid="{11852B2D-C62F-48E9-A333-23BFC0FD27C4}"/>
-    <cellStyle name="Normal 105" xfId="107" xr:uid="{D8021DCF-905F-41B7-870C-EC2D40D1FDD1}"/>
-    <cellStyle name="Normal 106" xfId="108" xr:uid="{267957A6-646B-4F82-BC46-AD7727FA4203}"/>
-    <cellStyle name="Normal 107" xfId="109" xr:uid="{0DA5F578-2155-4661-81D8-F133291C8E81}"/>
-    <cellStyle name="Normal 108" xfId="110" xr:uid="{FA6CCD61-55D9-4D35-9E97-5EB3979F96DA}"/>
-    <cellStyle name="Normal 109" xfId="111" xr:uid="{4BE0154F-526D-4250-AC74-BDD4CAED9DE8}"/>
-    <cellStyle name="Normal 11" xfId="13" xr:uid="{8416523C-0C4C-4667-8BFC-AE83BEE7AD61}"/>
-    <cellStyle name="Normal 110" xfId="112" xr:uid="{24ADE251-CD17-4CD3-9FF0-F7F35ECD3BDD}"/>
-    <cellStyle name="Normal 111" xfId="113" xr:uid="{12424192-A4F0-4F77-A87A-F9CE9A07472A}"/>
-    <cellStyle name="Normal 112" xfId="114" xr:uid="{6A05F95B-8BBF-4B58-B2EB-2E0791F9643A}"/>
-    <cellStyle name="Normal 113" xfId="115" xr:uid="{F7E6E1A0-D1F7-40BC-BE45-F32C1430EB78}"/>
-    <cellStyle name="Normal 114" xfId="116" xr:uid="{B342DBE9-81E6-473C-A118-595077FE866B}"/>
-    <cellStyle name="Normal 115" xfId="117" xr:uid="{EA213947-57FA-4036-9F55-C7832C3E79EE}"/>
-    <cellStyle name="Normal 116" xfId="118" xr:uid="{E5FAF72D-B0F0-43E3-9655-3D7C47F36C73}"/>
-    <cellStyle name="Normal 117" xfId="119" xr:uid="{D90C29B5-AC63-4CB3-9722-2B1115766226}"/>
-    <cellStyle name="Normal 118" xfId="120" xr:uid="{12C04174-20B9-4881-BABF-64FB7CA9C0DB}"/>
-    <cellStyle name="Normal 119" xfId="121" xr:uid="{964AF89D-233B-4D0D-BE2B-1F94AD7F3842}"/>
-    <cellStyle name="Normal 12" xfId="14" xr:uid="{12106BEF-A1F0-40FC-927C-95B678FF8C9D}"/>
-    <cellStyle name="Normal 120" xfId="122" xr:uid="{EFEB8CD5-0BA0-49CA-A0B8-092127FD0791}"/>
-    <cellStyle name="Normal 121" xfId="123" xr:uid="{B96DED74-F99A-4EEA-A78C-0C80655C83D7}"/>
-    <cellStyle name="Normal 122" xfId="124" xr:uid="{419505F6-5783-4267-9B99-AB4FB7214D56}"/>
-    <cellStyle name="Normal 123" xfId="125" xr:uid="{3304A5D5-482A-4194-8544-E51A5A54B2AD}"/>
-    <cellStyle name="Normal 124" xfId="126" xr:uid="{DC82DC20-E9C4-4BE1-B338-5CB5CE96C7DD}"/>
-    <cellStyle name="Normal 125" xfId="127" xr:uid="{02F225F8-AD8F-4909-8F0C-1FC2A6E48ADD}"/>
-    <cellStyle name="Normal 126" xfId="128" xr:uid="{D6C50CD7-228D-4AEB-B7CA-4B86B5FFD17F}"/>
-    <cellStyle name="Normal 127" xfId="129" xr:uid="{C69D27CC-B9EC-4448-8675-B86CA8F089A8}"/>
-    <cellStyle name="Normal 128" xfId="130" xr:uid="{396740C9-FA3A-44E5-A1D1-3F5A18CFA293}"/>
-    <cellStyle name="Normal 129" xfId="131" xr:uid="{3B7A73D2-F9C0-4EC7-A33D-A84C0C01F0E7}"/>
-    <cellStyle name="Normal 13" xfId="15" xr:uid="{D5A2F014-74CE-4B99-AFB7-935F66397A13}"/>
-    <cellStyle name="Normal 130" xfId="132" xr:uid="{815AD7D6-A7F5-423B-A31F-ACEFAA3E2AA6}"/>
-    <cellStyle name="Normal 131" xfId="133" xr:uid="{DEDC4573-1D4E-464F-B7DA-E01CD79050A8}"/>
-    <cellStyle name="Normal 132" xfId="134" xr:uid="{64EE0AFD-6B1B-4C08-947C-0807D5593B20}"/>
-    <cellStyle name="Normal 133" xfId="135" xr:uid="{DAD09F2E-5881-41A5-A291-8FD7011745C0}"/>
-    <cellStyle name="Normal 134" xfId="136" xr:uid="{4C594A35-55F2-4147-89DA-8E1D711CE0F8}"/>
-    <cellStyle name="Normal 135" xfId="137" xr:uid="{2E8D14F4-0989-487F-8F34-B48D3B13758A}"/>
-    <cellStyle name="Normal 136" xfId="138" xr:uid="{9EC11F8B-976C-49CC-99B0-5DAA29904A28}"/>
-    <cellStyle name="Normal 137" xfId="139" xr:uid="{84ABCBD0-673E-4CCE-B5B1-17E5DA4FCB18}"/>
-    <cellStyle name="Normal 138" xfId="140" xr:uid="{305C7955-B09B-4FEB-8A60-0A42F917D966}"/>
-    <cellStyle name="Normal 139" xfId="141" xr:uid="{BA85DF50-814B-46BB-8C39-CEF5A89B29A5}"/>
-    <cellStyle name="Normal 14" xfId="16" xr:uid="{D01E0D43-4AD7-429A-AEB0-A730D613C9BD}"/>
-    <cellStyle name="Normal 140" xfId="142" xr:uid="{8FD7E29F-64A1-4314-B43F-BE9970C3A048}"/>
-    <cellStyle name="Normal 141" xfId="143" xr:uid="{8C67191D-2A0D-4D07-B404-4E50B2E62965}"/>
-    <cellStyle name="Normal 142" xfId="144" xr:uid="{53BE1328-0D17-4430-A309-70AC6751E21C}"/>
-    <cellStyle name="Normal 143" xfId="145" xr:uid="{F0FAFB69-22FC-49ED-B939-D1B57D5908C0}"/>
-    <cellStyle name="Normal 144" xfId="146" xr:uid="{A3B89563-0F80-4104-9C64-6A2BAA117397}"/>
-    <cellStyle name="Normal 145" xfId="147" xr:uid="{C6254C8E-4B89-47F7-AD32-7EBBB9F1F92A}"/>
-    <cellStyle name="Normal 146" xfId="148" xr:uid="{08F9EEA6-FD95-4948-83D1-A9FCC8977FAC}"/>
-    <cellStyle name="Normal 147" xfId="149" xr:uid="{38871A14-37F0-4E1B-BB42-329C65D5232B}"/>
-    <cellStyle name="Normal 148" xfId="150" xr:uid="{0293D08F-A6E8-4A25-9269-CAEF2C423013}"/>
-    <cellStyle name="Normal 149" xfId="151" xr:uid="{D6E3A75A-B2D9-4245-A1D5-33AFAB5B391D}"/>
-    <cellStyle name="Normal 15" xfId="17" xr:uid="{305DC54C-C819-404C-BDF1-C83608B5D299}"/>
-    <cellStyle name="Normal 150" xfId="152" xr:uid="{E433BC6A-6804-409C-A9E6-CC9A3B6C96E4}"/>
-    <cellStyle name="Normal 151" xfId="153" xr:uid="{E10E75F7-DEDE-42A3-97A7-2A9824397F1C}"/>
-    <cellStyle name="Normal 152" xfId="154" xr:uid="{1F628D19-3B74-49F3-B8C0-2101DFA157D1}"/>
-    <cellStyle name="Normal 153" xfId="155" xr:uid="{356CE210-674F-44A9-AC97-7984C7AD5E51}"/>
-    <cellStyle name="Normal 154" xfId="156" xr:uid="{CA02FA15-69F6-42DC-9AAC-F57D25CC62AE}"/>
-    <cellStyle name="Normal 155" xfId="157" xr:uid="{B9DD6901-D926-42AA-A4FE-BE2C9F222EBF}"/>
-    <cellStyle name="Normal 156" xfId="158" xr:uid="{9602F5D6-200B-47BB-891A-2FCA66570733}"/>
-    <cellStyle name="Normal 157" xfId="159" xr:uid="{E3602722-B64F-480A-B4A9-026C730CAB4A}"/>
-    <cellStyle name="Normal 158" xfId="160" xr:uid="{CAB59B7B-48E7-49C4-AD38-6902CB9D33C2}"/>
-    <cellStyle name="Normal 159" xfId="161" xr:uid="{83BCF00F-8ECC-4E66-86A5-2E31B0409161}"/>
-    <cellStyle name="Normal 16" xfId="18" xr:uid="{1C44BFEB-AF4F-44B9-AB7D-E84C539F674E}"/>
-    <cellStyle name="Normal 160" xfId="162" xr:uid="{E5B8608D-99F2-4B98-82D3-B5651B302993}"/>
-    <cellStyle name="Normal 161" xfId="163" xr:uid="{345E8E53-B8CF-496A-AA94-0EF57C6E1359}"/>
-    <cellStyle name="Normal 162" xfId="164" xr:uid="{598ABC4C-ECAD-490A-BA6E-37F9B082E7F3}"/>
-    <cellStyle name="Normal 163" xfId="165" xr:uid="{832BD0A2-5C9E-4869-9703-F20731293963}"/>
-    <cellStyle name="Normal 164" xfId="166" xr:uid="{16A3553F-4C77-4BFF-9FD2-24461388DDBD}"/>
-    <cellStyle name="Normal 165" xfId="167" xr:uid="{0763BE0E-8248-4FF7-B576-F1B0999005A7}"/>
-    <cellStyle name="Normal 166" xfId="168" xr:uid="{9526E03B-2E10-4BC4-85DA-8BCA3D609FE7}"/>
-    <cellStyle name="Normal 167" xfId="2" xr:uid="{07FE4787-7B93-41FC-9E4F-8FBC06987C4C}"/>
-    <cellStyle name="Normal 168" xfId="169" xr:uid="{9DFE35C1-6716-47DD-93DA-C45CE5B1733A}"/>
-    <cellStyle name="Normal 17" xfId="19" xr:uid="{267D4F21-7C12-4608-898E-5F5D083FE399}"/>
-    <cellStyle name="Normal 18" xfId="20" xr:uid="{9A85BF3C-1358-403E-B2A2-26E706951D1A}"/>
-    <cellStyle name="Normal 19" xfId="21" xr:uid="{95CD936B-A1B5-4469-9933-3255C7529974}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{710D8545-FA03-4990-BC4A-2012815FA4CA}"/>
-    <cellStyle name="Normal 20" xfId="22" xr:uid="{9BD93858-13AE-4214-A008-8EFB052A4075}"/>
-    <cellStyle name="Normal 21" xfId="23" xr:uid="{A75AD1C6-EAE4-46F7-9482-2052CE2C2546}"/>
-    <cellStyle name="Normal 22" xfId="24" xr:uid="{B9E09CB4-056D-4E52-86F4-E03456BED50E}"/>
-    <cellStyle name="Normal 23" xfId="25" xr:uid="{20D6AAA6-367F-454C-8E0B-A183133B8CF7}"/>
-    <cellStyle name="Normal 24" xfId="26" xr:uid="{62D0FFD4-69EC-404A-820A-F9186F301097}"/>
-    <cellStyle name="Normal 25" xfId="27" xr:uid="{FEFB0288-F60F-44FB-8A38-8DA861DFB980}"/>
-    <cellStyle name="Normal 26" xfId="28" xr:uid="{78DD22FE-08BD-4BAB-B877-9EE1E783D29A}"/>
-    <cellStyle name="Normal 27" xfId="29" xr:uid="{9BA14BEC-94E4-4641-ACBF-FD20CA905566}"/>
-    <cellStyle name="Normal 28" xfId="30" xr:uid="{408AFB60-BD31-4FC9-A00E-43C2BD60B980}"/>
-    <cellStyle name="Normal 29" xfId="31" xr:uid="{E4D421D0-EA58-4F98-879E-15988E9693E6}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{F7A5A270-A95E-4C6E-A711-5F35D113BFDD}"/>
-    <cellStyle name="Normal 30" xfId="32" xr:uid="{75FB9882-9C62-47D4-AA07-0818D5D51CC4}"/>
-    <cellStyle name="Normal 31" xfId="33" xr:uid="{EAD62D0A-773D-48E5-A1CD-51E52FE95741}"/>
-    <cellStyle name="Normal 32" xfId="34" xr:uid="{38B5E2A0-B8A8-4A04-A5E8-EAB7B5450047}"/>
-    <cellStyle name="Normal 33" xfId="35" xr:uid="{6CA283E3-6A68-429C-8FF6-F2A049D5FB15}"/>
-    <cellStyle name="Normal 34" xfId="36" xr:uid="{58DE44D3-8E0D-4C40-9D50-2DC31A71BE77}"/>
-    <cellStyle name="Normal 35" xfId="37" xr:uid="{D487FC1F-12F5-4DD8-9F29-4998B7520BA3}"/>
-    <cellStyle name="Normal 36" xfId="38" xr:uid="{86FD4222-E90D-4F07-9745-17EC46B9E2CE}"/>
-    <cellStyle name="Normal 37" xfId="39" xr:uid="{5F325D61-5FA6-4B83-AC55-0A74708468A3}"/>
-    <cellStyle name="Normal 38" xfId="40" xr:uid="{1C328587-D018-4DAA-B3E9-7E9B541BCDBF}"/>
-    <cellStyle name="Normal 39" xfId="41" xr:uid="{75AC4642-6559-4B13-9923-86804BF81796}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{54034334-4E94-4131-AF42-C6981CAFE4C7}"/>
-    <cellStyle name="Normal 40" xfId="42" xr:uid="{7279A19F-1A7B-4C6D-A818-EFE5EF9B6C89}"/>
-    <cellStyle name="Normal 41" xfId="43" xr:uid="{AF3CE83D-05B1-4B45-A6CF-A0725FE20986}"/>
-    <cellStyle name="Normal 42" xfId="44" xr:uid="{64FD4C17-ABD6-4DC0-BB8C-1FD5F59DF959}"/>
-    <cellStyle name="Normal 43" xfId="45" xr:uid="{19C27262-9BF5-430A-9647-1E229A3BAB72}"/>
-    <cellStyle name="Normal 44" xfId="46" xr:uid="{872F2925-A781-4B75-A12E-41D2E16FE6D4}"/>
-    <cellStyle name="Normal 45" xfId="47" xr:uid="{539DB1E7-B884-4129-9570-67AA64CED4EF}"/>
-    <cellStyle name="Normal 46" xfId="48" xr:uid="{E8D435F6-457F-480A-A00B-2D93D5352F84}"/>
-    <cellStyle name="Normal 47" xfId="49" xr:uid="{C1A34863-A74A-4E07-9578-5DD584AEB738}"/>
-    <cellStyle name="Normal 48" xfId="50" xr:uid="{4C6F91D2-7107-4755-8689-CAE0A913A5D7}"/>
-    <cellStyle name="Normal 49" xfId="51" xr:uid="{27BB1DEE-510A-44EE-BA4D-DDC6C9AFE474}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{33471E67-90EC-4BD2-8643-5684999178CF}"/>
-    <cellStyle name="Normal 50" xfId="52" xr:uid="{A2355F27-E9B3-4C8A-A114-7CCF14E1E203}"/>
-    <cellStyle name="Normal 51" xfId="53" xr:uid="{FCFBDBE0-40F5-44DC-8932-79FC0803C2F9}"/>
-    <cellStyle name="Normal 52" xfId="54" xr:uid="{4C9D97C5-9093-4416-9687-A58D8CFA6D7B}"/>
-    <cellStyle name="Normal 53" xfId="55" xr:uid="{C5D78907-54C1-4FCB-9EC4-9EBB124A5CC0}"/>
-    <cellStyle name="Normal 54" xfId="56" xr:uid="{975702FB-A4A0-4802-B179-90E2ACDB7FC8}"/>
-    <cellStyle name="Normal 55" xfId="57" xr:uid="{B9410688-41CC-4FEE-AC8B-69590367C999}"/>
-    <cellStyle name="Normal 56" xfId="58" xr:uid="{4EE43E2C-4E80-4030-92BB-470B36AB3BC0}"/>
-    <cellStyle name="Normal 57" xfId="59" xr:uid="{51ECBD8A-2FD3-4F99-BE1E-E4571DE9C867}"/>
-    <cellStyle name="Normal 58" xfId="60" xr:uid="{A2F0A49C-333E-414F-9CBB-B64994DF856E}"/>
-    <cellStyle name="Normal 59" xfId="61" xr:uid="{EA528241-D226-42B6-97E8-9A23F17595C1}"/>
-    <cellStyle name="Normal 6" xfId="8" xr:uid="{061647CB-8EC3-4977-9F69-0537D0C6FF60}"/>
-    <cellStyle name="Normal 60" xfId="62" xr:uid="{520686DF-91CA-4CC2-94F2-8332C3F8161B}"/>
-    <cellStyle name="Normal 61" xfId="63" xr:uid="{69D3493A-7F15-446F-B3C0-DC946F94BF3D}"/>
-    <cellStyle name="Normal 62" xfId="64" xr:uid="{0E18D825-A9A2-4BCD-82F2-8C785682E892}"/>
-    <cellStyle name="Normal 63" xfId="65" xr:uid="{3847853E-8C21-49CB-9770-73D1F4936890}"/>
-    <cellStyle name="Normal 64" xfId="66" xr:uid="{AE115406-677A-4658-AD4E-277CE99311AA}"/>
-    <cellStyle name="Normal 65" xfId="67" xr:uid="{C1A5BA8E-9DDC-49EB-8076-7B44D0ACE64F}"/>
-    <cellStyle name="Normal 66" xfId="68" xr:uid="{BC11D91E-0C26-463B-BC2D-121244304010}"/>
-    <cellStyle name="Normal 67" xfId="69" xr:uid="{ED8B5420-5D38-4E73-90D8-292D5CEAD86C}"/>
-    <cellStyle name="Normal 68" xfId="70" xr:uid="{76542C4E-FB44-4F57-8883-968760165F05}"/>
-    <cellStyle name="Normal 69" xfId="71" xr:uid="{F3B9D6E0-3E3B-40D2-8EE3-C96105358B15}"/>
-    <cellStyle name="Normal 7" xfId="9" xr:uid="{43EAA456-45D6-4A67-85F9-4A54CCA155D2}"/>
-    <cellStyle name="Normal 70" xfId="72" xr:uid="{3F2974B8-F0A9-4C69-B10F-12B51C5446D4}"/>
-    <cellStyle name="Normal 71" xfId="73" xr:uid="{EE915332-C2C4-48C7-A072-02DDEBA7F589}"/>
-    <cellStyle name="Normal 72" xfId="74" xr:uid="{9993C1FE-0D05-438C-8CD0-4AD010F78513}"/>
-    <cellStyle name="Normal 73" xfId="75" xr:uid="{48AF26CB-D673-4043-83B5-7403757B5C40}"/>
-    <cellStyle name="Normal 74" xfId="76" xr:uid="{0BD78E09-E956-4648-8AF6-96989FA34FF9}"/>
-    <cellStyle name="Normal 75" xfId="77" xr:uid="{1FEEBD8A-E237-490E-B277-EC40B5EB1D44}"/>
-    <cellStyle name="Normal 76" xfId="78" xr:uid="{38ED6265-0EA3-49E4-A6EE-CE060B70A784}"/>
-    <cellStyle name="Normal 77" xfId="79" xr:uid="{EABF3DCE-3CC6-4BD7-965F-7950ADE9B7F3}"/>
-    <cellStyle name="Normal 78" xfId="80" xr:uid="{6C895C5F-D066-4598-A3CD-81743ECE15D3}"/>
-    <cellStyle name="Normal 79" xfId="81" xr:uid="{AAFB5682-25B7-45AE-81D4-696C03AD618A}"/>
-    <cellStyle name="Normal 8" xfId="10" xr:uid="{32082BCD-80BD-48E7-A24F-E7570C7DBB8E}"/>
-    <cellStyle name="Normal 80" xfId="82" xr:uid="{D7F4B6A2-CC38-496B-8E06-07C2224FEBD5}"/>
-    <cellStyle name="Normal 81" xfId="83" xr:uid="{A9D33BB4-1035-45A1-BF47-D96BDBB2C3DA}"/>
-    <cellStyle name="Normal 82" xfId="84" xr:uid="{B25C8F63-239A-4527-BFE9-D426DBFDA27A}"/>
-    <cellStyle name="Normal 83" xfId="85" xr:uid="{B271C02E-D58D-438D-B47B-504E9A604AFF}"/>
-    <cellStyle name="Normal 84" xfId="86" xr:uid="{7584825A-414F-47D2-868A-86FF4A931297}"/>
-    <cellStyle name="Normal 85" xfId="87" xr:uid="{90134BE6-2FE9-4DC8-BBD7-77859A850033}"/>
-    <cellStyle name="Normal 86" xfId="88" xr:uid="{D92146BF-5150-4E56-90E4-9AA3E28BB60D}"/>
-    <cellStyle name="Normal 87" xfId="89" xr:uid="{363DD723-E69D-4F28-A038-7598997BAF1B}"/>
-    <cellStyle name="Normal 88" xfId="90" xr:uid="{3CC3B0FB-069F-45AC-AEE8-FEEB551A0312}"/>
-    <cellStyle name="Normal 89" xfId="91" xr:uid="{4765E335-D11B-41D8-929B-E4AFBE8F3B94}"/>
-    <cellStyle name="Normal 9" xfId="11" xr:uid="{7C1D99BF-A65B-4621-A891-B27443F2C243}"/>
-    <cellStyle name="Normal 90" xfId="92" xr:uid="{87311514-E9E4-4CF1-8440-5969894F9C2A}"/>
-    <cellStyle name="Normal 91" xfId="93" xr:uid="{E1B55916-FA94-48D9-8524-E7BBCC9761E3}"/>
-    <cellStyle name="Normal 92" xfId="94" xr:uid="{C73D06BB-D7AB-4D6F-84E3-2203108BDF1D}"/>
-    <cellStyle name="Normal 93" xfId="95" xr:uid="{53006964-50A0-4525-B75C-76A1071224C1}"/>
-    <cellStyle name="Normal 94" xfId="96" xr:uid="{79AAE737-AD9E-421F-A23C-DCAEE691EB69}"/>
-    <cellStyle name="Normal 95" xfId="97" xr:uid="{4AEF4A99-9B9E-4210-9BCB-C584E18AFA51}"/>
-    <cellStyle name="Normal 96" xfId="98" xr:uid="{75C9D9FF-1191-4D83-959A-1E7C8B581758}"/>
-    <cellStyle name="Normal 97" xfId="99" xr:uid="{18C0012E-C58F-4518-89C4-43998575EE1F}"/>
-    <cellStyle name="Normal 98" xfId="100" xr:uid="{47CC2A8C-53B0-401F-8FD3-8E4C333CA62A}"/>
-    <cellStyle name="Normal 99" xfId="101" xr:uid="{830AC3C7-AF76-4979-ABB8-5A33F836B475}"/>
+    <cellStyle name="Normal 10" xfId="12"/>
+    <cellStyle name="Normal 100" xfId="102"/>
+    <cellStyle name="Normal 101" xfId="103"/>
+    <cellStyle name="Normal 102" xfId="104"/>
+    <cellStyle name="Normal 103" xfId="105"/>
+    <cellStyle name="Normal 104" xfId="106"/>
+    <cellStyle name="Normal 105" xfId="107"/>
+    <cellStyle name="Normal 106" xfId="108"/>
+    <cellStyle name="Normal 107" xfId="109"/>
+    <cellStyle name="Normal 108" xfId="110"/>
+    <cellStyle name="Normal 109" xfId="111"/>
+    <cellStyle name="Normal 11" xfId="13"/>
+    <cellStyle name="Normal 110" xfId="112"/>
+    <cellStyle name="Normal 111" xfId="113"/>
+    <cellStyle name="Normal 112" xfId="114"/>
+    <cellStyle name="Normal 113" xfId="115"/>
+    <cellStyle name="Normal 114" xfId="116"/>
+    <cellStyle name="Normal 115" xfId="117"/>
+    <cellStyle name="Normal 116" xfId="118"/>
+    <cellStyle name="Normal 117" xfId="119"/>
+    <cellStyle name="Normal 118" xfId="120"/>
+    <cellStyle name="Normal 119" xfId="121"/>
+    <cellStyle name="Normal 12" xfId="14"/>
+    <cellStyle name="Normal 120" xfId="122"/>
+    <cellStyle name="Normal 121" xfId="123"/>
+    <cellStyle name="Normal 122" xfId="124"/>
+    <cellStyle name="Normal 123" xfId="125"/>
+    <cellStyle name="Normal 124" xfId="126"/>
+    <cellStyle name="Normal 125" xfId="127"/>
+    <cellStyle name="Normal 126" xfId="128"/>
+    <cellStyle name="Normal 127" xfId="129"/>
+    <cellStyle name="Normal 128" xfId="130"/>
+    <cellStyle name="Normal 129" xfId="131"/>
+    <cellStyle name="Normal 13" xfId="15"/>
+    <cellStyle name="Normal 130" xfId="132"/>
+    <cellStyle name="Normal 131" xfId="133"/>
+    <cellStyle name="Normal 132" xfId="134"/>
+    <cellStyle name="Normal 133" xfId="135"/>
+    <cellStyle name="Normal 134" xfId="136"/>
+    <cellStyle name="Normal 135" xfId="137"/>
+    <cellStyle name="Normal 136" xfId="138"/>
+    <cellStyle name="Normal 137" xfId="139"/>
+    <cellStyle name="Normal 138" xfId="140"/>
+    <cellStyle name="Normal 139" xfId="141"/>
+    <cellStyle name="Normal 14" xfId="16"/>
+    <cellStyle name="Normal 140" xfId="142"/>
+    <cellStyle name="Normal 141" xfId="143"/>
+    <cellStyle name="Normal 142" xfId="144"/>
+    <cellStyle name="Normal 143" xfId="145"/>
+    <cellStyle name="Normal 144" xfId="146"/>
+    <cellStyle name="Normal 145" xfId="147"/>
+    <cellStyle name="Normal 146" xfId="148"/>
+    <cellStyle name="Normal 147" xfId="149"/>
+    <cellStyle name="Normal 148" xfId="150"/>
+    <cellStyle name="Normal 149" xfId="151"/>
+    <cellStyle name="Normal 15" xfId="17"/>
+    <cellStyle name="Normal 150" xfId="152"/>
+    <cellStyle name="Normal 151" xfId="153"/>
+    <cellStyle name="Normal 152" xfId="154"/>
+    <cellStyle name="Normal 153" xfId="155"/>
+    <cellStyle name="Normal 154" xfId="156"/>
+    <cellStyle name="Normal 155" xfId="157"/>
+    <cellStyle name="Normal 156" xfId="158"/>
+    <cellStyle name="Normal 157" xfId="159"/>
+    <cellStyle name="Normal 158" xfId="160"/>
+    <cellStyle name="Normal 159" xfId="161"/>
+    <cellStyle name="Normal 16" xfId="18"/>
+    <cellStyle name="Normal 160" xfId="162"/>
+    <cellStyle name="Normal 161" xfId="163"/>
+    <cellStyle name="Normal 162" xfId="164"/>
+    <cellStyle name="Normal 163" xfId="165"/>
+    <cellStyle name="Normal 164" xfId="166"/>
+    <cellStyle name="Normal 165" xfId="167"/>
+    <cellStyle name="Normal 166" xfId="168"/>
+    <cellStyle name="Normal 167" xfId="2"/>
+    <cellStyle name="Normal 168" xfId="169"/>
+    <cellStyle name="Normal 17" xfId="19"/>
+    <cellStyle name="Normal 18" xfId="20"/>
+    <cellStyle name="Normal 19" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 20" xfId="22"/>
+    <cellStyle name="Normal 21" xfId="23"/>
+    <cellStyle name="Normal 22" xfId="24"/>
+    <cellStyle name="Normal 23" xfId="25"/>
+    <cellStyle name="Normal 24" xfId="26"/>
+    <cellStyle name="Normal 25" xfId="27"/>
+    <cellStyle name="Normal 26" xfId="28"/>
+    <cellStyle name="Normal 27" xfId="29"/>
+    <cellStyle name="Normal 28" xfId="30"/>
+    <cellStyle name="Normal 29" xfId="31"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 30" xfId="32"/>
+    <cellStyle name="Normal 31" xfId="33"/>
+    <cellStyle name="Normal 32" xfId="34"/>
+    <cellStyle name="Normal 33" xfId="35"/>
+    <cellStyle name="Normal 34" xfId="36"/>
+    <cellStyle name="Normal 35" xfId="37"/>
+    <cellStyle name="Normal 36" xfId="38"/>
+    <cellStyle name="Normal 37" xfId="39"/>
+    <cellStyle name="Normal 38" xfId="40"/>
+    <cellStyle name="Normal 39" xfId="41"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 40" xfId="42"/>
+    <cellStyle name="Normal 41" xfId="43"/>
+    <cellStyle name="Normal 42" xfId="44"/>
+    <cellStyle name="Normal 43" xfId="45"/>
+    <cellStyle name="Normal 44" xfId="46"/>
+    <cellStyle name="Normal 45" xfId="47"/>
+    <cellStyle name="Normal 46" xfId="48"/>
+    <cellStyle name="Normal 47" xfId="49"/>
+    <cellStyle name="Normal 48" xfId="50"/>
+    <cellStyle name="Normal 49" xfId="51"/>
+    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 50" xfId="52"/>
+    <cellStyle name="Normal 51" xfId="53"/>
+    <cellStyle name="Normal 52" xfId="54"/>
+    <cellStyle name="Normal 53" xfId="55"/>
+    <cellStyle name="Normal 54" xfId="56"/>
+    <cellStyle name="Normal 55" xfId="57"/>
+    <cellStyle name="Normal 56" xfId="58"/>
+    <cellStyle name="Normal 57" xfId="59"/>
+    <cellStyle name="Normal 58" xfId="60"/>
+    <cellStyle name="Normal 59" xfId="61"/>
+    <cellStyle name="Normal 6" xfId="8"/>
+    <cellStyle name="Normal 60" xfId="62"/>
+    <cellStyle name="Normal 61" xfId="63"/>
+    <cellStyle name="Normal 62" xfId="64"/>
+    <cellStyle name="Normal 63" xfId="65"/>
+    <cellStyle name="Normal 64" xfId="66"/>
+    <cellStyle name="Normal 65" xfId="67"/>
+    <cellStyle name="Normal 66" xfId="68"/>
+    <cellStyle name="Normal 67" xfId="69"/>
+    <cellStyle name="Normal 68" xfId="70"/>
+    <cellStyle name="Normal 69" xfId="71"/>
+    <cellStyle name="Normal 7" xfId="9"/>
+    <cellStyle name="Normal 70" xfId="72"/>
+    <cellStyle name="Normal 71" xfId="73"/>
+    <cellStyle name="Normal 72" xfId="74"/>
+    <cellStyle name="Normal 73" xfId="75"/>
+    <cellStyle name="Normal 74" xfId="76"/>
+    <cellStyle name="Normal 75" xfId="77"/>
+    <cellStyle name="Normal 76" xfId="78"/>
+    <cellStyle name="Normal 77" xfId="79"/>
+    <cellStyle name="Normal 78" xfId="80"/>
+    <cellStyle name="Normal 79" xfId="81"/>
+    <cellStyle name="Normal 8" xfId="10"/>
+    <cellStyle name="Normal 80" xfId="82"/>
+    <cellStyle name="Normal 81" xfId="83"/>
+    <cellStyle name="Normal 82" xfId="84"/>
+    <cellStyle name="Normal 83" xfId="85"/>
+    <cellStyle name="Normal 84" xfId="86"/>
+    <cellStyle name="Normal 85" xfId="87"/>
+    <cellStyle name="Normal 86" xfId="88"/>
+    <cellStyle name="Normal 87" xfId="89"/>
+    <cellStyle name="Normal 88" xfId="90"/>
+    <cellStyle name="Normal 89" xfId="91"/>
+    <cellStyle name="Normal 9" xfId="11"/>
+    <cellStyle name="Normal 90" xfId="92"/>
+    <cellStyle name="Normal 91" xfId="93"/>
+    <cellStyle name="Normal 92" xfId="94"/>
+    <cellStyle name="Normal 93" xfId="95"/>
+    <cellStyle name="Normal 94" xfId="96"/>
+    <cellStyle name="Normal 95" xfId="97"/>
+    <cellStyle name="Normal 96" xfId="98"/>
+    <cellStyle name="Normal 97" xfId="99"/>
+    <cellStyle name="Normal 98" xfId="100"/>
+    <cellStyle name="Normal 99" xfId="101"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10829,12 +10823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F339" sqref="F339"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -40422,7 +40416,7 @@
         <v>1771</v>
       </c>
       <c r="D576" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E576" s="33"/>
       <c r="F576" s="34"/>
@@ -40466,7 +40460,7 @@
         <v>1773</v>
       </c>
       <c r="D577" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E577" s="33"/>
       <c r="F577" s="34"/>
@@ -40510,7 +40504,7 @@
         <v>1775</v>
       </c>
       <c r="D578" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E578" s="33"/>
       <c r="F578" s="34"/>
@@ -42846,7 +42840,7 @@
         <v>1913</v>
       </c>
       <c r="D631" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E631" s="33"/>
       <c r="F631" s="34"/>
@@ -42890,7 +42884,7 @@
         <v>1915</v>
       </c>
       <c r="D632" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E632" s="33"/>
       <c r="F632" s="34"/>
@@ -43330,7 +43324,7 @@
         <v>1941</v>
       </c>
       <c r="D642" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E642" s="33"/>
       <c r="F642" s="34"/>
@@ -43990,7 +43984,7 @@
         <v>1981</v>
       </c>
       <c r="D657" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E657" s="33"/>
       <c r="F657" s="34"/>
@@ -45662,7 +45656,7 @@
         <v>2081</v>
       </c>
       <c r="D695" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E695" s="33"/>
       <c r="F695" s="34"/>
@@ -45706,7 +45700,7 @@
         <v>2083</v>
       </c>
       <c r="D696" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E696" s="33"/>
       <c r="F696" s="34"/>
@@ -48086,7 +48080,7 @@
         <v>2226</v>
       </c>
       <c r="D750" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E750" s="33"/>
       <c r="F750" s="34"/>
@@ -55029,7 +55023,7 @@
       <c r="X993" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X864" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X864"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -55040,10 +55034,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AB36B8-A989-4751-8459-3DD9BC745A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
